--- a/doc/mesures/DDU012025-italy.xlsx
+++ b/doc/mesures/DDU012025-italy.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\4_Labor\3_Prüfberichte\2020\SP01 NO2 Röhrchen\2_Kundenversion\3_Deutschland\DDU\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0347C0-BF90-4092-AB07-1701DB710A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3AB8638-91DE-40F5-BD50-922C231D0B58}"/>
+    <workbookView xWindow="12360" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -21,11 +15,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Annex - Sampling'!$A:$H,'Annex - Sampling'!$9:$12</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Report!$A:$N,Report!$17:$20</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Report!$A:$O,Report!$17:$20</definedName>
     <definedName name="SAS" localSheetId="1">INDIRECT("Hilfsblatt!A"&amp;[1]Hilfsblatt!$B$17)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="142">
   <si>
     <t>passam ag</t>
   </si>
@@ -370,18 +367,108 @@
   </si>
   <si>
     <t>Fidenza 2.2 m</t>
+  </si>
+  <si>
+    <t>16.572</t>
+  </si>
+  <si>
+    <t>14.042</t>
+  </si>
+  <si>
+    <t>26.95</t>
+  </si>
+  <si>
+    <t>25.762</t>
+  </si>
+  <si>
+    <t>49.055</t>
+  </si>
+  <si>
+    <t>25.008</t>
+  </si>
+  <si>
+    <t>17.404</t>
+  </si>
+  <si>
+    <t>23.963</t>
+  </si>
+  <si>
+    <t>19.153</t>
+  </si>
+  <si>
+    <t>20.196</t>
+  </si>
+  <si>
+    <t>14.966</t>
+  </si>
+  <si>
+    <t>21.25</t>
+  </si>
+  <si>
+    <t>10.446</t>
+  </si>
+  <si>
+    <t>21.212</t>
+  </si>
+  <si>
+    <t>23.767</t>
+  </si>
+  <si>
+    <t>13.745</t>
+  </si>
+  <si>
+    <t>22.539</t>
+  </si>
+  <si>
+    <t>20.778</t>
+  </si>
+  <si>
+    <t>17.652</t>
+  </si>
+  <si>
+    <t>59.193</t>
+  </si>
+  <si>
+    <t>18.822</t>
+  </si>
+  <si>
+    <t>12.69</t>
+  </si>
+  <si>
+    <t>10.287</t>
+  </si>
+  <si>
+    <t>15.926</t>
+  </si>
+  <si>
+    <t>18.22</t>
+  </si>
+  <si>
+    <t>17.204</t>
+  </si>
+  <si>
+    <t>15.074</t>
+  </si>
+  <si>
+    <t>14.345</t>
+  </si>
+  <si>
+    <t>12.084</t>
+  </si>
+  <si>
+    <t>19.274</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +594,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -566,10 +675,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -595,58 +708,43 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -659,86 +757,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -801,30 +827,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,11 +838,150 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="hair">
+          <color rgb="FF034E93"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="hair">
+          <color rgb="FF034E93"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="hair">
@@ -876,13 +1017,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>513258</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1810323</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>134638</xdr:rowOff>
@@ -892,7 +1033,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE917294-3228-47F5-90D2-F33C9C0DCA50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE917294-3228-47F5-90D2-F33C9C0DCA50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,13 +1068,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>1212085</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>724</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
+          <xdr:col>14</xdr:col>
           <xdr:colOff>1888435</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>11126</xdr:rowOff>
@@ -943,7 +1084,7 @@
             <xdr:cNvPr id="3" name="Grafik 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D3806B-1ED8-43BC-AE53-F490F13D25D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61D3806B-1ED8-43BC-AE53-F490F13D25D3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -951,7 +1092,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="SAS" spid="_x0000_s1025"/>
+                  <a14:cameraTool cellRange="SAS" spid="_x0000_s1029"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -975,7 +1116,7 @@
               <a:noFill/>
             </a:ln>
             <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
                     <a:srgbClr val="FFFFFF"/>
@@ -990,6 +1131,55 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>513258</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464123</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE917294-3228-47F5-90D2-F33C9C0DCA50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="8558"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11155858" y="41455"/>
+          <a:ext cx="2554365" cy="690083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1013,7 +1203,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FF7C54-DBE9-4326-A7D8-51407CC7EADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{38FF7C54-DBE9-4326-A7D8-51407CC7EADF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +1238,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Protokoll"/>
@@ -1153,7 +1343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1205,7 +1395,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1399,45 +1589,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F598-8588-4C4B-92C7-F8F3D73B63B4}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="70" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="70" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="70" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" style="70" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="70" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="71" customWidth="1"/>
-    <col min="13" max="13" width="7" style="72" customWidth="1"/>
-    <col min="14" max="14" width="32" style="73" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="7" style="43" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="41" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="42" customWidth="1"/>
+    <col min="14" max="14" width="7" style="43" customWidth="1"/>
+    <col min="15" max="15" width="32" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1446,14 +1639,15 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="9.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1462,14 +1656,15 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:15" ht="7.25" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1478,18 +1673,19 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="68"/>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1498,14 +1694,15 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="68"/>
+    </row>
+    <row r="5" spans="1:15" ht="12" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1514,270 +1711,287 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="11" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="18" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" ht="11" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="20" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="O7" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15" ht="11" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="20" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="H8" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="68"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="O8" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:15" ht="11" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="H9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="68"/>
+      <c r="J9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="K9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="68"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:15" ht="11" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20" t="s">
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="14">
         <v>0.73399999999999999</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="J10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="O10" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:15" ht="11" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8" t="s">
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+    <row r="12" spans="1:15" ht="11" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="23">
+      <c r="O12" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="6"/>
+    <row r="13" spans="1:15" ht="7.25" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" ht="11" customHeight="1">
+      <c r="A14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" ht="11" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" ht="9" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1786,1517 +2000,1627 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" s="38" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" s="26" customFormat="1" ht="14" customHeight="1">
+      <c r="A17" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36" t="s">
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="32" t="s">
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="55"/>
+      <c r="O17" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="41" t="s">
+    <row r="18" spans="1:15" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="58"/>
+      <c r="G18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="61"/>
+      <c r="I18" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="J18" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="41" t="s">
+      <c r="K18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="44"/>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="63"/>
+      <c r="M18" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="N18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="48"/>
-    </row>
-    <row r="19" spans="1:14" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41" t="s">
+      <c r="O18" s="57"/>
+    </row>
+    <row r="19" spans="1:15" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="41" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="L19" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="66"/>
+      <c r="N19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="N19" s="48"/>
-    </row>
-    <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58" t="s">
+      <c r="O19" s="57"/>
+    </row>
+    <row r="20" spans="1:15" ht="12" customHeight="1">
+      <c r="A20" s="73"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="E20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="F20" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="G20" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="53" t="s">
+      <c r="H20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="I20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="J20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="53"/>
+      <c r="L20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="L20" s="62" t="s">
+      <c r="M20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="N20" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="N20" s="48"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="O20" s="57"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="64">
+      <c r="B21" s="35">
+        <v>2713</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="35">
         <v>43774</v>
       </c>
-      <c r="D21" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E21" s="66">
+      <c r="E21" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F21" s="37">
         <v>0.37847222222222227</v>
       </c>
-      <c r="F21" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G21" s="66">
+      <c r="G21" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H21" s="37">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H21" s="67">
+      <c r="I21" s="38">
         <v>672.91666666666663</v>
       </c>
-      <c r="I21" s="68">
+      <c r="J21" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="K21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="68">
+      <c r="L21" s="39">
         <v>0.112</v>
       </c>
-      <c r="L21" s="69">
+      <c r="M21" s="40">
         <v>0.49110999999999999</v>
       </c>
-      <c r="M21" s="67">
+      <c r="N21" s="38">
         <v>16.571999999999999</v>
       </c>
-      <c r="N21" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="O21" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="35">
         <v>2704</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="35">
         <v>43774</v>
       </c>
-      <c r="D22" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E22" s="66">
+      <c r="E22" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F22" s="37">
         <v>0.40625</v>
       </c>
-      <c r="F22" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G22" s="66">
+      <c r="G22" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H22" s="37">
         <v>0.40486111111111112</v>
       </c>
-      <c r="H22" s="67">
+      <c r="I22" s="38">
         <v>671.9666666666667</v>
       </c>
-      <c r="I22" s="68">
+      <c r="J22" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="K22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="68">
+      <c r="L22" s="39">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="L22" s="69">
+      <c r="M22" s="40">
         <v>0.41555999999999998</v>
       </c>
-      <c r="M22" s="67">
+      <c r="N22" s="38">
         <v>14.042</v>
       </c>
-      <c r="N22" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="O22" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="35">
         <v>2768</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="35">
         <v>43774</v>
       </c>
-      <c r="D23" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E23" s="66">
+      <c r="E23" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F23" s="37">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F23" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G23" s="66">
+      <c r="G23" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H23" s="37">
         <v>0.55138888888888882</v>
       </c>
-      <c r="H23" s="67">
+      <c r="I23" s="38">
         <v>675.9</v>
       </c>
-      <c r="I23" s="68">
+      <c r="J23" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J23" s="64" t="s">
+      <c r="K23" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="68">
+      <c r="L23" s="39">
         <v>0.182</v>
       </c>
-      <c r="L23" s="69">
+      <c r="M23" s="40">
         <v>0.80222000000000004</v>
       </c>
-      <c r="M23" s="67">
+      <c r="N23" s="38">
         <v>26.95</v>
       </c>
-      <c r="N23" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+      <c r="O23" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="35">
         <v>2739</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="35">
         <v>43774</v>
       </c>
-      <c r="D24" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E24" s="66">
+      <c r="E24" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F24" s="37">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F24" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G24" s="66">
+      <c r="G24" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H24" s="37">
         <v>0.88194444444444453</v>
       </c>
-      <c r="H24" s="67">
+      <c r="I24" s="38">
         <v>683.58333333333337</v>
       </c>
-      <c r="I24" s="68">
+      <c r="J24" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J24" s="64" t="s">
+      <c r="K24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="68">
+      <c r="L24" s="39">
         <v>0.17599999999999999</v>
       </c>
-      <c r="L24" s="69">
+      <c r="M24" s="40">
         <v>0.77556000000000003</v>
       </c>
-      <c r="M24" s="67">
+      <c r="N24" s="38">
         <v>25.762</v>
       </c>
-      <c r="N24" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+      <c r="O24" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="35">
         <v>2769</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="35">
         <v>43774</v>
       </c>
-      <c r="D25" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E25" s="66">
+      <c r="E25" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F25" s="37">
         <v>9</v>
       </c>
-      <c r="F25" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G25" s="66">
+      <c r="G25" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H25" s="37">
         <v>0.58680555555555558</v>
       </c>
-      <c r="H25" s="67">
+      <c r="I25" s="38">
         <v>470.08333333333331</v>
       </c>
-      <c r="I25" s="68">
+      <c r="J25" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="K25" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="68">
+      <c r="L25" s="39">
         <v>0.23</v>
       </c>
-      <c r="L25" s="69">
+      <c r="M25" s="40">
         <v>1.01556</v>
       </c>
-      <c r="M25" s="67">
+      <c r="N25" s="38">
         <v>49.055</v>
       </c>
-      <c r="N25" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="O25" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="35">
         <v>2727</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="35">
         <v>43774</v>
       </c>
-      <c r="D26" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E26" s="66">
+      <c r="E26" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F26" s="37">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F26" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G26" s="66">
+      <c r="G26" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H26" s="37">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H26" s="67">
+      <c r="I26" s="38">
         <v>684</v>
       </c>
-      <c r="I26" s="68">
+      <c r="J26" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="K26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="68">
+      <c r="L26" s="39">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L26" s="69">
+      <c r="M26" s="40">
         <v>0.75333000000000006</v>
       </c>
-      <c r="M26" s="67">
+      <c r="N26" s="38">
         <v>25.007999999999999</v>
       </c>
-      <c r="N26" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+      <c r="O26" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="35">
         <v>2778</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="35">
         <v>43774</v>
       </c>
-      <c r="D27" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E27" s="66">
+      <c r="E27" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F27" s="37">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F27" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G27" s="66">
+      <c r="G27" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H27" s="37">
         <v>0.8125</v>
       </c>
-      <c r="H27" s="67">
+      <c r="I27" s="38">
         <v>681.33333333333337</v>
       </c>
-      <c r="I27" s="68">
+      <c r="J27" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J27" s="64" t="s">
+      <c r="K27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="68">
+      <c r="L27" s="39">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L27" s="69">
+      <c r="M27" s="40">
         <v>0.52222000000000002</v>
       </c>
-      <c r="M27" s="67">
+      <c r="N27" s="38">
         <v>17.404</v>
       </c>
-      <c r="N27" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+      <c r="O27" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="35">
         <v>2714</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="35">
         <v>43774</v>
       </c>
-      <c r="D28" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E28" s="66">
+      <c r="E28" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F28" s="37">
         <v>0.64236111111111105</v>
       </c>
-      <c r="F28" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G28" s="66">
+      <c r="G28" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H28" s="37">
         <v>0.63055555555555554</v>
       </c>
-      <c r="H28" s="67">
+      <c r="I28" s="38">
         <v>671.7166666666667</v>
       </c>
-      <c r="I28" s="68">
+      <c r="J28" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="K28" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K28" s="68">
+      <c r="L28" s="39">
         <v>0.161</v>
       </c>
-      <c r="L28" s="69">
+      <c r="M28" s="40">
         <v>0.70889000000000002</v>
       </c>
-      <c r="M28" s="67">
+      <c r="N28" s="38">
         <v>23.963000000000001</v>
       </c>
-      <c r="N28" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+      <c r="O28" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="35">
         <v>2723</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="35">
         <v>43774</v>
       </c>
-      <c r="D29" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E29" s="66">
+      <c r="E29" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F29" s="37">
         <v>0.62013888888888891</v>
       </c>
-      <c r="F29" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G29" s="66">
+      <c r="G29" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H29" s="37">
         <v>0.61249999999999993</v>
       </c>
-      <c r="H29" s="67">
+      <c r="I29" s="38">
         <v>671.81666666666672</v>
       </c>
-      <c r="I29" s="68">
+      <c r="J29" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J29" s="64" t="s">
+      <c r="K29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K29" s="68">
+      <c r="L29" s="39">
         <v>0.129</v>
       </c>
-      <c r="L29" s="69">
+      <c r="M29" s="40">
         <v>0.56667000000000001</v>
       </c>
-      <c r="M29" s="67">
+      <c r="N29" s="38">
         <v>19.152999999999999</v>
       </c>
-      <c r="N29" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="O29" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="35">
         <v>2707</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="35">
         <v>43774</v>
       </c>
-      <c r="D30" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E30" s="66">
+      <c r="E30" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F30" s="37">
         <v>0.61249999999999993</v>
       </c>
-      <c r="F30" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G30" s="66">
+      <c r="G30" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H30" s="37">
         <v>0.61597222222222225</v>
       </c>
-      <c r="H30" s="67">
+      <c r="I30" s="38">
         <v>672.08333333333337</v>
       </c>
-      <c r="I30" s="68">
+      <c r="J30" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="K30" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="68">
+      <c r="L30" s="39">
         <v>0.13600000000000001</v>
       </c>
-      <c r="L30" s="69">
+      <c r="M30" s="40">
         <v>0.59777999999999998</v>
       </c>
-      <c r="M30" s="67">
+      <c r="N30" s="38">
         <v>20.196000000000002</v>
       </c>
-      <c r="N30" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="O30" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="35">
         <v>2745</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="35">
         <v>43774</v>
       </c>
-      <c r="D31" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E31" s="66">
+      <c r="E31" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F31" s="37">
         <v>0.40625</v>
       </c>
-      <c r="F31" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G31" s="66">
+      <c r="G31" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H31" s="37">
         <v>0.9243055555555556</v>
       </c>
-      <c r="H31" s="67">
+      <c r="I31" s="38">
         <v>684.43333333333328</v>
       </c>
-      <c r="I31" s="68">
+      <c r="J31" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="K31" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="68">
+      <c r="L31" s="39">
         <v>0.10299999999999999</v>
       </c>
-      <c r="L31" s="69">
+      <c r="M31" s="40">
         <v>0.45111000000000001</v>
       </c>
-      <c r="M31" s="67">
+      <c r="N31" s="38">
         <v>14.965999999999999</v>
       </c>
-      <c r="N31" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="O31" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="35">
         <v>2738</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="35">
         <v>43774</v>
       </c>
-      <c r="D32" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E32" s="66">
+      <c r="E32" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F32" s="37">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F32" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G32" s="66">
+      <c r="G32" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H32" s="37">
         <v>0.39930555555555558</v>
       </c>
-      <c r="H32" s="67">
+      <c r="I32" s="38">
         <v>672</v>
       </c>
-      <c r="I32" s="68">
+      <c r="J32" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="K32" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K32" s="68">
+      <c r="L32" s="39">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L32" s="69">
+      <c r="M32" s="40">
         <v>0.62888999999999995</v>
       </c>
-      <c r="M32" s="67">
+      <c r="N32" s="38">
         <v>21.25</v>
       </c>
-      <c r="N32" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+      <c r="O32" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="35">
         <v>2781</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="35">
         <v>43774</v>
       </c>
-      <c r="D33" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E33" s="66">
+      <c r="E33" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F33" s="37">
         <v>0.38680555555555557</v>
       </c>
-      <c r="F33" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G33" s="66">
+      <c r="G33" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H33" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H33" s="67">
+      <c r="I33" s="38">
         <v>671.4666666666667</v>
       </c>
-      <c r="I33" s="68">
+      <c r="J33" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J33" s="64" t="s">
+      <c r="K33" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="68">
+      <c r="L33" s="39">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="L33" s="69">
+      <c r="M33" s="40">
         <v>0.30889</v>
       </c>
-      <c r="M33" s="67">
+      <c r="N33" s="38">
         <v>10.446</v>
       </c>
-      <c r="N33" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+      <c r="O33" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="35">
         <v>2715</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="35">
         <v>43774</v>
       </c>
-      <c r="D34" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E34" s="66">
+      <c r="E34" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F34" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F34" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G34" s="66">
+      <c r="G34" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H34" s="37">
         <v>0.61319444444444449</v>
       </c>
-      <c r="H34" s="67">
+      <c r="I34" s="38">
         <v>677.9666666666667</v>
       </c>
-      <c r="I34" s="68">
+      <c r="J34" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="K34" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="68">
+      <c r="L34" s="39">
         <v>0.14399999999999999</v>
       </c>
-      <c r="L34" s="69">
+      <c r="M34" s="40">
         <v>0.63332999999999995</v>
       </c>
-      <c r="M34" s="67">
+      <c r="N34" s="38">
         <v>21.212</v>
       </c>
-      <c r="N34" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="O34" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="35">
         <v>2726</v>
       </c>
-      <c r="C35" s="64">
+      <c r="C35" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="35">
         <v>43774</v>
       </c>
-      <c r="D35" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E35" s="66">
+      <c r="E35" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F35" s="37">
         <v>9</v>
       </c>
-      <c r="F35" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G35" s="66">
+      <c r="G35" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H35" s="37">
         <v>0.90416666666666667</v>
       </c>
-      <c r="H35" s="67">
+      <c r="I35" s="38">
         <v>477.7</v>
       </c>
-      <c r="I35" s="68">
+      <c r="J35" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="K35" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K35" s="68">
+      <c r="L35" s="39">
         <v>0.114</v>
       </c>
-      <c r="L35" s="69">
+      <c r="M35" s="40">
         <v>0.5</v>
       </c>
-      <c r="M35" s="67">
+      <c r="N35" s="38">
         <v>23.766999999999999</v>
       </c>
-      <c r="N35" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="O35" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="35">
         <v>2744</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="35">
         <v>43774</v>
       </c>
-      <c r="D36" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E36" s="66">
+      <c r="E36" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F36" s="37">
         <v>0.6333333333333333</v>
       </c>
-      <c r="F36" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G36" s="66">
+      <c r="G36" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H36" s="37">
         <v>0.625</v>
       </c>
-      <c r="H36" s="67">
+      <c r="I36" s="38">
         <v>671.8</v>
       </c>
-      <c r="I36" s="68">
+      <c r="J36" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="K36" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K36" s="68">
+      <c r="L36" s="39">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="L36" s="69">
+      <c r="M36" s="40">
         <v>0.40666999999999998</v>
       </c>
-      <c r="M36" s="67">
+      <c r="N36" s="38">
         <v>13.744999999999999</v>
       </c>
-      <c r="N36" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+      <c r="O36" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="35">
         <v>2794</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="35">
         <v>43774</v>
       </c>
-      <c r="D37" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E37" s="66">
+      <c r="E37" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F37" s="37">
         <v>0.84305555555555556</v>
       </c>
-      <c r="F37" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G37" s="66">
+      <c r="G37" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H37" s="37">
         <v>0.92013888888888884</v>
       </c>
-      <c r="H37" s="67">
+      <c r="I37" s="38">
         <v>673.85</v>
       </c>
-      <c r="I37" s="68">
+      <c r="J37" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J37" s="64" t="s">
+      <c r="K37" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="68">
+      <c r="L37" s="39">
         <v>0.152</v>
       </c>
-      <c r="L37" s="69">
+      <c r="M37" s="40">
         <v>0.66888999999999998</v>
       </c>
-      <c r="M37" s="67">
+      <c r="N37" s="38">
         <v>22.539000000000001</v>
       </c>
-      <c r="N37" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
+      <c r="O37" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="35">
         <v>2708</v>
       </c>
-      <c r="C38" s="64">
+      <c r="C38" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="35">
         <v>43774</v>
       </c>
-      <c r="D38" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E38" s="66">
+      <c r="E38" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F38" s="37">
         <v>0.7729166666666667</v>
       </c>
-      <c r="F38" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G38" s="66">
+      <c r="G38" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H38" s="37">
         <v>0.80208333333333337</v>
       </c>
-      <c r="H38" s="67">
+      <c r="I38" s="38">
         <v>672.7</v>
       </c>
-      <c r="I38" s="68">
+      <c r="J38" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="K38" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K38" s="68">
+      <c r="L38" s="39">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L38" s="69">
+      <c r="M38" s="40">
         <v>0.61556</v>
       </c>
-      <c r="M38" s="67">
+      <c r="N38" s="38">
         <v>20.777999999999999</v>
       </c>
-      <c r="N38" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+      <c r="O38" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="35">
         <v>2752</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="35">
         <v>43774</v>
       </c>
-      <c r="D39" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E39" s="66">
+      <c r="E39" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F39" s="37">
         <v>0.6381944444444444</v>
       </c>
-      <c r="F39" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G39" s="66">
+      <c r="G39" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H39" s="37">
         <v>0.62777777777777777</v>
       </c>
-      <c r="H39" s="67">
+      <c r="I39" s="38">
         <v>671.75</v>
       </c>
-      <c r="I39" s="68">
+      <c r="J39" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="K39" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K39" s="68">
+      <c r="L39" s="39">
         <v>0.11899999999999999</v>
       </c>
-      <c r="L39" s="69">
+      <c r="M39" s="40">
         <v>0.52222000000000002</v>
       </c>
-      <c r="M39" s="67">
+      <c r="N39" s="38">
         <v>17.652000000000001</v>
       </c>
-      <c r="N39" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+      <c r="O39" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40" s="35">
         <v>2770</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="35">
         <v>43774</v>
       </c>
-      <c r="D40" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E40" s="66">
+      <c r="E40" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F40" s="37">
         <v>19</v>
       </c>
-      <c r="F40" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G40" s="66">
+      <c r="G40" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H40" s="37">
         <v>0.90972222222222221</v>
       </c>
-      <c r="H40" s="67">
+      <c r="I40" s="38">
         <v>237.83333333333331</v>
       </c>
-      <c r="I40" s="68">
+      <c r="J40" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J40" s="64" t="s">
+      <c r="K40" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K40" s="68">
+      <c r="L40" s="39">
         <v>0.14099999999999999</v>
       </c>
-      <c r="L40" s="69">
+      <c r="M40" s="40">
         <v>0.62</v>
       </c>
-      <c r="M40" s="67">
+      <c r="N40" s="38">
         <v>59.192999999999998</v>
       </c>
-      <c r="N40" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+      <c r="O40" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="64">
+      <c r="B41" s="35">
         <v>2796</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="35">
         <v>43774</v>
       </c>
-      <c r="D41" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E41" s="66">
+      <c r="E41" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F41" s="37">
         <v>0.8618055555555556</v>
       </c>
-      <c r="F41" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G41" s="66">
+      <c r="G41" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H41" s="37">
         <v>0.89930555555555547</v>
       </c>
-      <c r="H41" s="67">
+      <c r="I41" s="38">
         <v>672.9</v>
       </c>
-      <c r="I41" s="68">
+      <c r="J41" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J41" s="64" t="s">
+      <c r="K41" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="68">
+      <c r="L41" s="39">
         <v>0.127</v>
       </c>
-      <c r="L41" s="69">
+      <c r="M41" s="40">
         <v>0.55778000000000005</v>
       </c>
-      <c r="M41" s="67">
+      <c r="N41" s="38">
         <v>18.821999999999999</v>
       </c>
-      <c r="N41" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
+      <c r="O41" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="35">
         <v>2764</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="35">
         <v>43774</v>
       </c>
-      <c r="D42" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E42" s="66">
+      <c r="E42" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F42" s="37">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F42" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G42" s="66">
+      <c r="G42" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H42" s="37">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H42" s="67">
+      <c r="I42" s="38">
         <v>672</v>
       </c>
-      <c r="I42" s="68">
+      <c r="J42" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J42" s="64" t="s">
+      <c r="K42" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="68">
+      <c r="L42" s="39">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="L42" s="69">
+      <c r="M42" s="40">
         <v>0.37556</v>
       </c>
-      <c r="M42" s="67">
+      <c r="N42" s="38">
         <v>12.69</v>
       </c>
-      <c r="N42" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="63" t="s">
+      <c r="O42" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="64">
+      <c r="B43" s="35">
         <v>2771</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="35">
         <v>43774</v>
       </c>
-      <c r="D43" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E43" s="66">
+      <c r="E43" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F43" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="F43" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G43" s="66">
+      <c r="G43" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H43" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H43" s="67">
+      <c r="I43" s="38">
         <v>672</v>
       </c>
-      <c r="I43" s="68">
+      <c r="J43" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J43" s="64" t="s">
+      <c r="K43" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K43" s="68">
+      <c r="L43" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="69">
+      <c r="M43" s="40">
         <v>0.30443999999999999</v>
       </c>
-      <c r="M43" s="67">
+      <c r="N43" s="38">
         <v>10.287000000000001</v>
       </c>
-      <c r="N43" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="s">
+      <c r="O43" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="64">
+      <c r="B44" s="35">
         <v>2784</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="35">
         <v>43774</v>
       </c>
-      <c r="D44" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E44" s="66">
+      <c r="E44" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F44" s="37">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F44" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G44" s="66">
+      <c r="G44" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H44" s="37">
         <v>0.80763888888888891</v>
       </c>
-      <c r="H44" s="67">
+      <c r="I44" s="38">
         <v>681.2166666666667</v>
       </c>
-      <c r="I44" s="68">
+      <c r="J44" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="K44" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="68">
+      <c r="L44" s="39">
         <v>0.109</v>
       </c>
-      <c r="L44" s="69">
+      <c r="M44" s="40">
         <v>0.47777999999999998</v>
       </c>
-      <c r="M44" s="67">
+      <c r="N44" s="38">
         <v>15.926</v>
       </c>
-      <c r="N44" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="63" t="s">
+      <c r="O44" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="64">
+      <c r="B45" s="35">
         <v>2788</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="35">
         <v>43774</v>
       </c>
-      <c r="D45" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E45" s="66">
+      <c r="E45" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F45" s="37">
         <v>0.85069444444444453</v>
       </c>
-      <c r="F45" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G45" s="66">
+      <c r="G45" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H45" s="37">
         <v>0.89166666666666661</v>
       </c>
-      <c r="H45" s="67">
+      <c r="I45" s="38">
         <v>672.98333333333335</v>
       </c>
-      <c r="I45" s="68">
+      <c r="J45" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J45" s="64" t="s">
+      <c r="K45" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="68">
+      <c r="L45" s="39">
         <v>0.123</v>
       </c>
-      <c r="L45" s="69">
+      <c r="M45" s="40">
         <v>0.54</v>
       </c>
-      <c r="M45" s="67">
+      <c r="N45" s="38">
         <v>18.22</v>
       </c>
-      <c r="N45" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="O45" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="64">
+      <c r="B46" s="35">
         <v>2767</v>
       </c>
-      <c r="C46" s="64">
+      <c r="C46" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="35">
         <v>43774</v>
       </c>
-      <c r="D46" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E46" s="66">
+      <c r="E46" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F46" s="37">
         <v>0.64722222222222225</v>
       </c>
-      <c r="F46" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G46" s="66">
+      <c r="G46" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H46" s="37">
         <v>0.6333333333333333</v>
       </c>
-      <c r="H46" s="67">
+      <c r="I46" s="38">
         <v>671.66666666666663</v>
       </c>
-      <c r="I46" s="68">
+      <c r="J46" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J46" s="64" t="s">
+      <c r="K46" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="68">
+      <c r="L46" s="39">
         <v>0.11600000000000001</v>
       </c>
-      <c r="L46" s="69">
+      <c r="M46" s="40">
         <v>0.50888999999999995</v>
       </c>
-      <c r="M46" s="67">
+      <c r="N46" s="38">
         <v>17.204000000000001</v>
       </c>
-      <c r="N46" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="63" t="s">
+      <c r="O46" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="64">
+      <c r="B47" s="35">
         <v>2712</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="35">
         <v>43774</v>
       </c>
-      <c r="D47" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E47" s="66">
+      <c r="E47" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F47" s="37">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F47" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G47" s="66">
+      <c r="G47" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H47" s="37">
         <v>0.81874999999999998</v>
       </c>
-      <c r="H47" s="67">
+      <c r="I47" s="38">
         <v>672.81666666666672</v>
       </c>
-      <c r="I47" s="68">
+      <c r="J47" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J47" s="64" t="s">
+      <c r="K47" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="68">
+      <c r="L47" s="39">
         <v>0.10199999999999999</v>
       </c>
-      <c r="L47" s="69">
+      <c r="M47" s="40">
         <v>0.44667000000000001</v>
       </c>
-      <c r="M47" s="67">
+      <c r="N47" s="38">
         <v>15.074</v>
       </c>
-      <c r="N47" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="63" t="s">
+      <c r="O47" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="64">
+      <c r="B48" s="35">
         <v>2743</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="35">
         <v>43774</v>
       </c>
-      <c r="D48" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E48" s="66">
+      <c r="E48" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F48" s="37">
         <v>0.62777777777777777</v>
       </c>
-      <c r="F48" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G48" s="66">
+      <c r="G48" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H48" s="37">
         <v>0.62222222222222223</v>
       </c>
-      <c r="H48" s="67">
+      <c r="I48" s="38">
         <v>671.86666666666667</v>
       </c>
-      <c r="I48" s="68">
+      <c r="J48" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J48" s="64" t="s">
+      <c r="K48" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K48" s="68">
+      <c r="L48" s="39">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L48" s="69">
+      <c r="M48" s="40">
         <v>0.42443999999999998</v>
       </c>
-      <c r="M48" s="67">
+      <c r="N48" s="38">
         <v>14.345000000000001</v>
       </c>
-      <c r="N48" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="63" t="s">
+      <c r="O48" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="64">
+      <c r="B49" s="35">
         <v>2783</v>
       </c>
-      <c r="C49" s="64">
+      <c r="C49" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="35">
         <v>43774</v>
       </c>
-      <c r="D49" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E49" s="66">
+      <c r="E49" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F49" s="37">
         <v>0.60763888888888895</v>
       </c>
-      <c r="F49" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G49" s="66">
+      <c r="G49" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H49" s="37">
         <v>0.61875000000000002</v>
       </c>
-      <c r="H49" s="67">
+      <c r="I49" s="38">
         <v>672.26666666666665</v>
       </c>
-      <c r="I49" s="68">
+      <c r="J49" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J49" s="64" t="s">
+      <c r="K49" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K49" s="68">
+      <c r="L49" s="39">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="L49" s="69">
+      <c r="M49" s="40">
         <v>0.35777999999999999</v>
       </c>
-      <c r="M49" s="67">
+      <c r="N49" s="38">
         <v>12.084</v>
       </c>
-      <c r="N49" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="63" t="s">
+      <c r="O49" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="64">
+      <c r="B50" s="35">
         <v>1730</v>
       </c>
-      <c r="C50" s="64">
+      <c r="C50" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="35">
         <v>43774</v>
       </c>
-      <c r="D50" s="65">
-        <v>44105</v>
-      </c>
-      <c r="E50" s="66">
+      <c r="E50" s="36">
+        <v>44105</v>
+      </c>
+      <c r="F50" s="37">
         <v>0.85555555555555562</v>
       </c>
-      <c r="F50" s="65">
-        <v>44133</v>
-      </c>
-      <c r="G50" s="66">
+      <c r="G50" s="36">
+        <v>44133</v>
+      </c>
+      <c r="H50" s="37">
         <v>0.89027777777777783</v>
       </c>
-      <c r="H50" s="67">
+      <c r="I50" s="38">
         <v>672.83333333333337</v>
       </c>
-      <c r="I50" s="68">
+      <c r="J50" s="39">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="K50" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="K50" s="68">
+      <c r="L50" s="39">
         <v>0.13</v>
       </c>
-      <c r="L50" s="69">
+      <c r="M50" s="40">
         <v>0.57111000000000001</v>
       </c>
-      <c r="M50" s="67">
+      <c r="N50" s="38">
         <v>19.274000000000001</v>
       </c>
-      <c r="N50" s="63" t="s">
+      <c r="O50" s="34" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:H19"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
-  <conditionalFormatting sqref="A21:N50">
+  <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="A21:B50 D21:O50">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>IF(OR(NOT($A21=""),NOT($B21="")),TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C50">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(OR(NOT($A21=""),NOT($B21="")),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L&amp;"Arial,Standard"&amp;8&amp;G     &amp;"Arial,Kursiv"passam ag, Schellenstrasse 44, 8708 Männedorf, Switzerland, accredited laboratory for air analysis by diffusive samplers according to ISO/IEC 17025  &amp;R&amp;"Arial,Kursiv"&amp;8page &amp;P           </oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <legacyDrawingHF r:id="rId4"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353DB6E7-476A-4AE9-AB50-799E20CBCFEE}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="70" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="70" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="10" style="71" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="72" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="41" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="41" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="41" customWidth="1"/>
+    <col min="7" max="7" width="10" style="42" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="43" customWidth="1"/>
     <col min="9" max="9" width="46.33203125" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -3307,9 +3631,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="5.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" ht="5.75" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3317,22 +3641,22 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" customHeight="1">
+      <c r="A3" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="5.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="9"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="5.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3340,46 +3664,46 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.5" customHeight="1">
+      <c r="A5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="5.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="5.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="5.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="5.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="5.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="16"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="5.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3387,958 +3711,958 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" s="38" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" s="26" customFormat="1" ht="14" customHeight="1">
+      <c r="A9" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="10" spans="1:9" s="38" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+    </row>
+    <row r="10" spans="1:9" s="26" customFormat="1" ht="15.5" customHeight="1">
+      <c r="A10" s="72"/>
       <c r="B10" s="79"/>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="74"/>
+      <c r="G10" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="38" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:9" s="26" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="79"/>
       <c r="H11" s="79"/>
-      <c r="I11" s="82"/>
-    </row>
-    <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84" t="s">
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1">
+      <c r="A12" s="73"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="82"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="I12" s="85"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D13" s="66">
+      <c r="C13" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D13" s="37">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E13" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F13" s="66">
+      <c r="E13" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F13" s="37">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="86" t="s">
+      <c r="G13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="34">
         <v>2704</v>
       </c>
-      <c r="C14" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D14" s="66">
+      <c r="C14" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D14" s="37">
         <v>0.40625</v>
       </c>
-      <c r="E14" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F14" s="66">
+      <c r="E14" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F14" s="37">
         <v>0.40486111111111112</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="86" t="s">
+      <c r="G14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="34">
         <v>2768</v>
       </c>
-      <c r="C15" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D15" s="66">
+      <c r="C15" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D15" s="37">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E15" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F15" s="66">
+      <c r="E15" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F15" s="37">
         <v>0.55138888888888882</v>
       </c>
-      <c r="G15" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="86" t="s">
+      <c r="G15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="34">
         <v>2739</v>
       </c>
-      <c r="C16" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D16" s="66">
+      <c r="C16" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D16" s="37">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E16" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F16" s="66">
+      <c r="E16" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F16" s="37">
         <v>0.88194444444444453</v>
       </c>
-      <c r="G16" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="86" t="s">
+      <c r="G16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="34">
         <v>2769</v>
       </c>
-      <c r="C17" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D17" s="66">
+      <c r="C17" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D17" s="37">
         <v>9</v>
       </c>
-      <c r="E17" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F17" s="66">
+      <c r="E17" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F17" s="37">
         <v>0.58680555555555558</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="86" t="s">
+      <c r="G17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="34">
         <v>2727</v>
       </c>
-      <c r="C18" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D18" s="66">
+      <c r="C18" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D18" s="37">
         <v>0.38541666666666669</v>
       </c>
-      <c r="E18" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F18" s="66">
+      <c r="E18" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F18" s="37">
         <v>0.88541666666666663</v>
       </c>
-      <c r="G18" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="86" t="s">
+      <c r="G18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="34">
         <v>2778</v>
       </c>
-      <c r="C19" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D19" s="66">
+      <c r="C19" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D19" s="37">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E19" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F19" s="66">
+      <c r="E19" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F19" s="37">
         <v>0.8125</v>
       </c>
-      <c r="G19" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="86" t="s">
+      <c r="G19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="34">
         <v>2714</v>
       </c>
-      <c r="C20" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D20" s="66">
+      <c r="C20" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D20" s="37">
         <v>0.64236111111111105</v>
       </c>
-      <c r="E20" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F20" s="66">
+      <c r="E20" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F20" s="37">
         <v>0.63055555555555554</v>
       </c>
-      <c r="G20" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="86" t="s">
+      <c r="G20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="34">
         <v>2723</v>
       </c>
-      <c r="C21" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D21" s="66">
+      <c r="C21" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D21" s="37">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E21" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F21" s="66">
+      <c r="E21" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F21" s="37">
         <v>0.61249999999999993</v>
       </c>
-      <c r="G21" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="86" t="s">
+      <c r="G21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="34">
         <v>2707</v>
       </c>
-      <c r="C22" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D22" s="66">
+      <c r="C22" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D22" s="37">
         <v>0.61249999999999993</v>
       </c>
-      <c r="E22" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F22" s="66">
+      <c r="E22" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F22" s="37">
         <v>0.61597222222222225</v>
       </c>
-      <c r="G22" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="86" t="s">
+      <c r="G22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="34">
         <v>2745</v>
       </c>
-      <c r="C23" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D23" s="66">
+      <c r="C23" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D23" s="37">
         <v>0.40625</v>
       </c>
-      <c r="E23" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F23" s="66">
+      <c r="E23" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F23" s="37">
         <v>0.9243055555555556</v>
       </c>
-      <c r="G23" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="86" t="s">
+      <c r="G23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="34">
         <v>2738</v>
       </c>
-      <c r="C24" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D24" s="66">
+      <c r="C24" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D24" s="37">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E24" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F24" s="66">
+      <c r="E24" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F24" s="37">
         <v>0.39930555555555558</v>
       </c>
-      <c r="G24" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="86" t="s">
+      <c r="G24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="34">
         <v>2781</v>
       </c>
-      <c r="C25" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D25" s="66">
+      <c r="C25" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D25" s="37">
         <v>0.38680555555555557</v>
       </c>
-      <c r="E25" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F25" s="66">
+      <c r="E25" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F25" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="G25" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="86" t="s">
+      <c r="G25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="34">
         <v>2715</v>
       </c>
-      <c r="C26" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D26" s="66">
+      <c r="C26" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D26" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E26" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F26" s="66">
+      <c r="E26" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F26" s="37">
         <v>0.61319444444444449</v>
       </c>
-      <c r="G26" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="86" t="s">
+      <c r="G26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="34">
         <v>2726</v>
       </c>
-      <c r="C27" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D27" s="66">
+      <c r="C27" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D27" s="37">
         <v>9</v>
       </c>
-      <c r="E27" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F27" s="66">
+      <c r="E27" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F27" s="37">
         <v>0.90416666666666667</v>
       </c>
-      <c r="G27" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="86" t="s">
+      <c r="G27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="34">
         <v>2744</v>
       </c>
-      <c r="C28" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D28" s="66">
+      <c r="C28" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D28" s="37">
         <v>0.6333333333333333</v>
       </c>
-      <c r="E28" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F28" s="66">
+      <c r="E28" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F28" s="37">
         <v>0.625</v>
       </c>
-      <c r="G28" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="86" t="s">
+      <c r="G28" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="34">
         <v>2794</v>
       </c>
-      <c r="C29" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D29" s="66">
+      <c r="C29" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D29" s="37">
         <v>0.84305555555555556</v>
       </c>
-      <c r="E29" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F29" s="66">
+      <c r="E29" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F29" s="37">
         <v>0.92013888888888884</v>
       </c>
-      <c r="G29" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="86" t="s">
+      <c r="G29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="34">
         <v>2708</v>
       </c>
-      <c r="C30" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D30" s="66">
+      <c r="C30" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D30" s="37">
         <v>0.7729166666666667</v>
       </c>
-      <c r="E30" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F30" s="66">
+      <c r="E30" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F30" s="37">
         <v>0.80208333333333337</v>
       </c>
-      <c r="G30" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="86" t="s">
+      <c r="G30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="34">
         <v>2752</v>
       </c>
-      <c r="C31" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D31" s="66">
+      <c r="C31" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D31" s="37">
         <v>0.6381944444444444</v>
       </c>
-      <c r="E31" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F31" s="66">
+      <c r="E31" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F31" s="37">
         <v>0.62777777777777777</v>
       </c>
-      <c r="G31" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="86" t="s">
+      <c r="G31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="34">
         <v>2770</v>
       </c>
-      <c r="C32" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D32" s="66">
+      <c r="C32" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D32" s="37">
         <v>19</v>
       </c>
-      <c r="E32" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F32" s="66">
+      <c r="E32" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F32" s="37">
         <v>0.90972222222222221</v>
       </c>
-      <c r="G32" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="86" t="s">
+      <c r="G32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="34">
         <v>2796</v>
       </c>
-      <c r="C33" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D33" s="66">
+      <c r="C33" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D33" s="37">
         <v>0.8618055555555556</v>
       </c>
-      <c r="E33" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F33" s="66">
+      <c r="E33" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F33" s="37">
         <v>0.89930555555555547</v>
       </c>
-      <c r="G33" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="86" t="s">
+      <c r="G33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="34">
         <v>2764</v>
       </c>
-      <c r="C34" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D34" s="66">
+      <c r="C34" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D34" s="37">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E34" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F34" s="66">
+      <c r="E34" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F34" s="37">
         <v>0.35416666666666669</v>
       </c>
-      <c r="G34" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="86" t="s">
+      <c r="G34" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="34">
         <v>2771</v>
       </c>
-      <c r="C35" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D35" s="66">
+      <c r="C35" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D35" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E35" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F35" s="66">
+      <c r="E35" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F35" s="37">
         <v>0.36458333333333331</v>
       </c>
-      <c r="G35" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="86" t="s">
+      <c r="G35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="49" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="34">
         <v>2784</v>
       </c>
-      <c r="C36" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D36" s="66">
+      <c r="C36" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D36" s="37">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E36" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F36" s="66">
+      <c r="E36" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F36" s="37">
         <v>0.80763888888888891</v>
       </c>
-      <c r="G36" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="86" t="s">
+      <c r="G36" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="34">
         <v>2788</v>
       </c>
-      <c r="C37" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D37" s="66">
+      <c r="C37" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D37" s="37">
         <v>0.85069444444444453</v>
       </c>
-      <c r="E37" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F37" s="66">
+      <c r="E37" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F37" s="37">
         <v>0.89166666666666661</v>
       </c>
-      <c r="G37" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="86" t="s">
+      <c r="G37" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="34">
         <v>2767</v>
       </c>
-      <c r="C38" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D38" s="66">
+      <c r="C38" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D38" s="37">
         <v>0.64722222222222225</v>
       </c>
-      <c r="E38" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F38" s="66">
+      <c r="E38" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F38" s="37">
         <v>0.6333333333333333</v>
       </c>
-      <c r="G38" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="86" t="s">
+      <c r="G38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="34">
         <v>2712</v>
       </c>
-      <c r="C39" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D39" s="66">
+      <c r="C39" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D39" s="37">
         <v>0.78472222222222221</v>
       </c>
-      <c r="E39" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F39" s="66">
+      <c r="E39" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F39" s="37">
         <v>0.81874999999999998</v>
       </c>
-      <c r="G39" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="86" t="s">
+      <c r="G39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="34">
         <v>2743</v>
       </c>
-      <c r="C40" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D40" s="66">
+      <c r="C40" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D40" s="37">
         <v>0.62777777777777777</v>
       </c>
-      <c r="E40" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F40" s="66">
+      <c r="E40" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F40" s="37">
         <v>0.62222222222222223</v>
       </c>
-      <c r="G40" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="86" t="s">
+      <c r="G40" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="63" t="s">
+    <row r="41" spans="1:9">
+      <c r="A41" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="34">
         <v>2783</v>
       </c>
-      <c r="C41" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D41" s="66">
+      <c r="C41" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D41" s="37">
         <v>0.60763888888888895</v>
       </c>
-      <c r="E41" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F41" s="66">
+      <c r="E41" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F41" s="37">
         <v>0.61875000000000002</v>
       </c>
-      <c r="G41" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="86" t="s">
+      <c r="G41" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
+    <row r="42" spans="1:9">
+      <c r="A42" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="34">
         <v>1730</v>
       </c>
-      <c r="C42" s="85">
-        <v>44105</v>
-      </c>
-      <c r="D42" s="66">
+      <c r="C42" s="48">
+        <v>44105</v>
+      </c>
+      <c r="D42" s="37">
         <v>0.85555555555555562</v>
       </c>
-      <c r="E42" s="85">
-        <v>44133</v>
-      </c>
-      <c r="F42" s="66">
+      <c r="E42" s="48">
+        <v>44133</v>
+      </c>
+      <c r="F42" s="37">
         <v>0.89027777777777783</v>
       </c>
-      <c r="G42" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="86" t="s">
+      <c r="G42" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+    <row r="43" spans="1:9">
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4353,17 +4677,23 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="B11:B12"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A13:I50">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(OR(NOT($A13=""),NOT($B13="")),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L&amp;"Arial,Standard"&amp;8&amp;G     &amp;"Arial,Kursiv"passam ag, Schellenstrasse 44, 8708 Männedorf, Switzerland, accredited laboratory for air analysis by diffusive samplers according to ISO/IEC 17025  &amp;R&amp;"Arial,Kursiv"&amp;8page &amp;P           </oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>